--- a/Code/Results/Cases/Case_0_130/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_130/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.253201624431528</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.261948157415881</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.238961012154866</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.264593522279055</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.257355432930639</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.264219822765226</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.241276631757563</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.266860238048067</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.259141021866084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.261274684570749</v>
+      </c>
+      <c r="D3">
+        <v>1.269967458815738</v>
+      </c>
+      <c r="E3">
+        <v>1.246431140111469</v>
+      </c>
+      <c r="F3">
+        <v>1.272547338133115</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023504579208684</v>
+      </c>
+      <c r="J3">
+        <v>1.265120465913773</v>
+      </c>
+      <c r="K3">
+        <v>1.272073499411297</v>
+      </c>
+      <c r="L3">
+        <v>1.248578525788971</v>
+      </c>
+      <c r="M3">
+        <v>1.274648944971017</v>
+      </c>
+      <c r="N3">
+        <v>1.266917082086716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.266402729835498</v>
+      </c>
+      <c r="D4">
+        <v>1.275061002915677</v>
+      </c>
+      <c r="E4">
+        <v>1.251173468686544</v>
+      </c>
+      <c r="F4">
+        <v>1.277598823491369</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.023443335729026</v>
+      </c>
+      <c r="J4">
+        <v>1.270050744794229</v>
+      </c>
+      <c r="K4">
+        <v>1.277060462043522</v>
+      </c>
+      <c r="L4">
+        <v>1.253212536582357</v>
+      </c>
+      <c r="M4">
+        <v>1.279594166210968</v>
+      </c>
+      <c r="N4">
+        <v>1.271854362528693</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.268536815106074</v>
+      </c>
+      <c r="D5">
+        <v>1.277180644500071</v>
+      </c>
+      <c r="E5">
+        <v>1.253146381495311</v>
+      </c>
+      <c r="F5">
+        <v>1.279700851582604</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.023416932628352</v>
+      </c>
+      <c r="J5">
+        <v>1.272102025873748</v>
+      </c>
+      <c r="K5">
+        <v>1.279135421974122</v>
+      </c>
+      <c r="L5">
+        <v>1.255140026812101</v>
+      </c>
+      <c r="M5">
+        <v>1.28165164236288</v>
+      </c>
+      <c r="N5">
+        <v>1.273908556662631</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.268893895277758</v>
+      </c>
+      <c r="D6">
+        <v>1.277535302859019</v>
+      </c>
+      <c r="E6">
+        <v>1.253476455626721</v>
+      </c>
+      <c r="F6">
+        <v>1.280052556340727</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.023412460900047</v>
+      </c>
+      <c r="J6">
+        <v>1.272445221664584</v>
+      </c>
+      <c r="K6">
+        <v>1.279482584987362</v>
+      </c>
+      <c r="L6">
+        <v>1.255462480563561</v>
+      </c>
+      <c r="M6">
+        <v>1.281995873344448</v>
+      </c>
+      <c r="N6">
+        <v>1.274252239830854</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.26643132952097</v>
+      </c>
+      <c r="D7">
+        <v>1.275089409375283</v>
+      </c>
+      <c r="E7">
+        <v>1.25119991101222</v>
+      </c>
+      <c r="F7">
+        <v>1.277626994340807</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.02344298551034</v>
+      </c>
+      <c r="J7">
+        <v>1.270078236765756</v>
+      </c>
+      <c r="K7">
+        <v>1.277088270992905</v>
+      </c>
+      <c r="L7">
+        <v>1.253238371540023</v>
+      </c>
+      <c r="M7">
+        <v>1.279621741297676</v>
+      </c>
+      <c r="N7">
+        <v>1.271881893541974</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.255950516415438</v>
+      </c>
+      <c r="D8">
+        <v>1.264678817854897</v>
+      </c>
+      <c r="E8">
+        <v>1.241505178059324</v>
+      </c>
+      <c r="F8">
+        <v>1.2673019818137</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023565007130014</v>
+      </c>
+      <c r="J8">
+        <v>1.2599998842235</v>
+      </c>
+      <c r="K8">
+        <v>1.266894377819373</v>
+      </c>
+      <c r="L8">
+        <v>1.243763820758216</v>
+      </c>
+      <c r="M8">
+        <v>1.269512770068137</v>
+      </c>
+      <c r="N8">
+        <v>1.261789228583104</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.23669139995212</v>
+      </c>
+      <c r="D9">
+        <v>1.245545981487298</v>
+      </c>
+      <c r="E9">
+        <v>1.223668747871688</v>
+      </c>
+      <c r="F9">
+        <v>1.248322713783126</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.023759139049229</v>
+      </c>
+      <c r="J9">
+        <v>1.241463441577065</v>
+      </c>
+      <c r="K9">
+        <v>1.248148663108556</v>
+      </c>
+      <c r="L9">
+        <v>1.226320258012071</v>
+      </c>
+      <c r="M9">
+        <v>1.250919328732593</v>
+      </c>
+      <c r="N9">
+        <v>1.243226462061951</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.223233534826075</v>
+      </c>
+      <c r="D10">
+        <v>1.232174566939853</v>
+      </c>
+      <c r="E10">
+        <v>1.211190126376889</v>
+      </c>
+      <c r="F10">
+        <v>1.235056081499801</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.023874603872166</v>
+      </c>
+      <c r="J10">
+        <v>1.228498911506109</v>
+      </c>
+      <c r="K10">
+        <v>1.235040031210007</v>
+      </c>
+      <c r="L10">
+        <v>1.214107945445573</v>
+      </c>
+      <c r="M10">
+        <v>1.237914506006747</v>
+      </c>
+      <c r="N10">
+        <v>1.230243520871242</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.217237714658179</v>
+      </c>
+      <c r="D11">
+        <v>1.226216857944837</v>
+      </c>
+      <c r="E11">
+        <v>1.205627025130947</v>
+      </c>
+      <c r="F11">
+        <v>1.229144450511814</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023921309042974</v>
+      </c>
+      <c r="J11">
+        <v>1.222720072915519</v>
+      </c>
+      <c r="K11">
+        <v>1.229197514183936</v>
+      </c>
+      <c r="L11">
+        <v>1.208661480564069</v>
+      </c>
+      <c r="M11">
+        <v>1.232117615109643</v>
+      </c>
+      <c r="N11">
+        <v>1.224456475667012</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.214983231080317</v>
+      </c>
+      <c r="D12">
+        <v>1.223976645713587</v>
+      </c>
+      <c r="E12">
+        <v>1.203534711861952</v>
+      </c>
+      <c r="F12">
+        <v>1.226921472779211</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023938164268118</v>
+      </c>
+      <c r="J12">
+        <v>1.220546750361855</v>
+      </c>
+      <c r="K12">
+        <v>1.227000327870021</v>
+      </c>
+      <c r="L12">
+        <v>1.206612716318356</v>
+      </c>
+      <c r="M12">
+        <v>1.229937490429883</v>
+      </c>
+      <c r="N12">
+        <v>1.222280066746037</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.215468099168287</v>
+      </c>
+      <c r="D13">
+        <v>1.224458447108189</v>
+      </c>
+      <c r="E13">
+        <v>1.203984726476138</v>
+      </c>
+      <c r="F13">
+        <v>1.227399571705561</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023934571058996</v>
+      </c>
+      <c r="J13">
+        <v>1.221014182584198</v>
+      </c>
+      <c r="K13">
+        <v>1.22747288879901</v>
+      </c>
+      <c r="L13">
+        <v>1.207053378883195</v>
+      </c>
+      <c r="M13">
+        <v>1.230406386205106</v>
+      </c>
+      <c r="N13">
+        <v>1.222748162775752</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.217051929259677</v>
+      </c>
+      <c r="D14">
+        <v>1.226032249788841</v>
+      </c>
+      <c r="E14">
+        <v>1.205454614610785</v>
+      </c>
+      <c r="F14">
+        <v>1.228961264456536</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023922712353274</v>
+      </c>
+      <c r="J14">
+        <v>1.222540984437509</v>
+      </c>
+      <c r="K14">
+        <v>1.229016457531036</v>
+      </c>
+      <c r="L14">
+        <v>1.208492665066883</v>
+      </c>
+      <c r="M14">
+        <v>1.231937966373433</v>
+      </c>
+      <c r="N14">
+        <v>1.224277132862822</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.218024087709068</v>
+      </c>
+      <c r="D15">
+        <v>1.226998245702715</v>
+      </c>
+      <c r="E15">
+        <v>1.206356764544252</v>
+      </c>
+      <c r="F15">
+        <v>1.229919815229628</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023915340507296</v>
+      </c>
+      <c r="J15">
+        <v>1.223478082557578</v>
+      </c>
+      <c r="K15">
+        <v>1.229963857776413</v>
+      </c>
+      <c r="L15">
+        <v>1.209375990784607</v>
+      </c>
+      <c r="M15">
+        <v>1.232877995577131</v>
+      </c>
+      <c r="N15">
+        <v>1.225215561769707</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.223627736868833</v>
+      </c>
+      <c r="D16">
+        <v>1.23256625505451</v>
+      </c>
+      <c r="E16">
+        <v>1.211555804581164</v>
+      </c>
+      <c r="F16">
+        <v>1.235444727530174</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.023871434968932</v>
+      </c>
+      <c r="J16">
+        <v>1.228878788981651</v>
+      </c>
+      <c r="K16">
+        <v>1.235424106298223</v>
+      </c>
+      <c r="L16">
+        <v>1.214465912941738</v>
+      </c>
+      <c r="M16">
+        <v>1.23829556832151</v>
+      </c>
+      <c r="N16">
+        <v>1.230623937816373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.227096259778598</v>
+      </c>
+      <c r="D17">
+        <v>1.236012612463489</v>
+      </c>
+      <c r="E17">
+        <v>1.214772945487488</v>
+      </c>
+      <c r="F17">
+        <v>1.238864249205264</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023843013862359</v>
+      </c>
+      <c r="J17">
+        <v>1.232220951858469</v>
+      </c>
+      <c r="K17">
+        <v>1.238803262948582</v>
+      </c>
+      <c r="L17">
+        <v>1.21761497908187</v>
+      </c>
+      <c r="M17">
+        <v>1.241648145030041</v>
+      </c>
+      <c r="N17">
+        <v>1.233970846947827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.229103283938967</v>
+      </c>
+      <c r="D18">
+        <v>1.238006772259005</v>
+      </c>
+      <c r="E18">
+        <v>1.216634172624293</v>
+      </c>
+      <c r="F18">
+        <v>1.240842823411015</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.023826118601775</v>
+      </c>
+      <c r="J18">
+        <v>1.234154592678656</v>
+      </c>
+      <c r="K18">
+        <v>1.240758359294717</v>
+      </c>
+      <c r="L18">
+        <v>1.219436625089199</v>
+      </c>
+      <c r="M18">
+        <v>1.243587802072053</v>
+      </c>
+      <c r="N18">
+        <v>1.23590723375977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.229784954695736</v>
+      </c>
+      <c r="D19">
+        <v>1.238684067138359</v>
+      </c>
+      <c r="E19">
+        <v>1.217266267311617</v>
+      </c>
+      <c r="F19">
+        <v>1.241514815040032</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.023820303822167</v>
+      </c>
+      <c r="J19">
+        <v>1.234811294246954</v>
+      </c>
+      <c r="K19">
+        <v>1.241422356422082</v>
+      </c>
+      <c r="L19">
+        <v>1.220055244200118</v>
+      </c>
+      <c r="M19">
+        <v>1.244246545346859</v>
+      </c>
+      <c r="N19">
+        <v>1.23656486791962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.226725800321324</v>
+      </c>
+      <c r="D20">
+        <v>1.235644524401513</v>
+      </c>
+      <c r="E20">
+        <v>1.214429370190759</v>
+      </c>
+      <c r="F20">
+        <v>1.238499033319297</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.023846096030143</v>
+      </c>
+      <c r="J20">
+        <v>1.231864016095688</v>
+      </c>
+      <c r="K20">
+        <v>1.238442370882074</v>
+      </c>
+      <c r="L20">
+        <v>1.217278694375984</v>
+      </c>
+      <c r="M20">
+        <v>1.2412900979998</v>
+      </c>
+      <c r="N20">
+        <v>1.233613404295321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.216586303807211</v>
+      </c>
+      <c r="D21">
+        <v>1.225569573865609</v>
+      </c>
+      <c r="E21">
+        <v>1.205022501368542</v>
+      </c>
+      <c r="F21">
+        <v>1.228502151208567</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.02392621804881</v>
+      </c>
+      <c r="J21">
+        <v>1.222092136296976</v>
+      </c>
+      <c r="K21">
+        <v>1.228562677935707</v>
+      </c>
+      <c r="L21">
+        <v>1.208069556898887</v>
+      </c>
+      <c r="M21">
+        <v>1.231487713856301</v>
+      </c>
+      <c r="N21">
+        <v>1.223827647306445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.210051683164155</v>
+      </c>
+      <c r="D22">
+        <v>1.219076209788656</v>
+      </c>
+      <c r="E22">
+        <v>1.198956915008861</v>
+      </c>
+      <c r="F22">
+        <v>1.222058568142569</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.023973741382756</v>
+      </c>
+      <c r="J22">
+        <v>1.215791949901102</v>
+      </c>
+      <c r="K22">
+        <v>1.222193475426176</v>
+      </c>
+      <c r="L22">
+        <v>1.202129609293004</v>
+      </c>
+      <c r="M22">
+        <v>1.225167785477577</v>
+      </c>
+      <c r="N22">
+        <v>1.217518513923247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.213531669645225</v>
+      </c>
+      <c r="D23">
+        <v>1.222534256664312</v>
+      </c>
+      <c r="E23">
+        <v>1.202187413511156</v>
+      </c>
+      <c r="F23">
+        <v>1.225490154505769</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023948818288664</v>
+      </c>
+      <c r="J23">
+        <v>1.219147324405476</v>
+      </c>
+      <c r="K23">
+        <v>1.225585559799652</v>
+      </c>
+      <c r="L23">
+        <v>1.20529336998829</v>
+      </c>
+      <c r="M23">
+        <v>1.228533680977058</v>
+      </c>
+      <c r="N23">
+        <v>1.220878653444285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.2268932446264</v>
+      </c>
+      <c r="D24">
+        <v>1.235810896977108</v>
+      </c>
+      <c r="E24">
+        <v>1.214584664146114</v>
+      </c>
+      <c r="F24">
+        <v>1.238664107875337</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.023844704313072</v>
+      </c>
+      <c r="J24">
+        <v>1.23202534863973</v>
+      </c>
+      <c r="K24">
+        <v>1.238605491486133</v>
+      </c>
+      <c r="L24">
+        <v>1.217430693640517</v>
+      </c>
+      <c r="M24">
+        <v>1.241451932856556</v>
+      </c>
+      <c r="N24">
+        <v>1.23377496595008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.241772531466111</v>
+      </c>
+      <c r="D25">
+        <v>1.250594111335753</v>
+      </c>
+      <c r="E25">
+        <v>1.228377091559278</v>
+      </c>
+      <c r="F25">
+        <v>1.253330761569044</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.02371141742819</v>
+      </c>
+      <c r="J25">
+        <v>1.246355903425497</v>
+      </c>
+      <c r="K25">
+        <v>1.253095974794931</v>
+      </c>
+      <c r="L25">
+        <v>1.230926348549289</v>
+      </c>
+      <c r="M25">
+        <v>1.255826911093399</v>
+      </c>
+      <c r="N25">
+        <v>1.248125871767382</v>
       </c>
     </row>
   </sheetData>
